--- a/mallar/import/TDB_SM_2018_Export_001_2018_08_10.xlsx
+++ b/mallar/import/TDB_SM_2018_Export_001_2018_08_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552F6BA-1B84-4A39-A32C-D82A5E79F3BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6767BE85-E8B0-4FE1-996E-72289FA69031}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16185" windowHeight="5198" xr2:uid="{F0829227-07B5-4921-B026-48DFC2FAFEEA}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16185" windowHeight="5198" activeTab="4" xr2:uid="{F0829227-07B5-4921-B026-48DFC2FAFEEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Ekipage" sheetId="1" r:id="rId1"/>
@@ -797,13 +797,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DE36F3-1C7C-49E2-B08E-E5128A1C894D}">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="41.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17.53125" customWidth="1"/>
     <col min="9" max="9" width="13.59765625" customWidth="1"/>
     <col min="10" max="10" width="36.59765625" customWidth="1"/>
     <col min="12" max="12" width="19.3984375" customWidth="1"/>
@@ -2061,7 +2062,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2181,6 +2182,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2482,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6587CA-25D8-406F-B63D-1E9E510EAF38}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
